--- a/Data sets/PyT1/labels.xlsx
+++ b/Data sets/PyT1/labels.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\ACVA\Data\Python\CWE\PyT1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ACVA\Data\Python\CWE\PyT1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A8CFEC-5733-43CD-AB7F-098DBA22C563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="true_label" sheetId="6" r:id="rId1"/>
-    <sheet name="sonarqube" sheetId="1" r:id="rId2"/>
-    <sheet name="codeql" sheetId="2" r:id="rId3"/>
-    <sheet name="bandit" sheetId="3" r:id="rId4"/>
-    <sheet name="semgrep" sheetId="4" r:id="rId5"/>
-    <sheet name="model" sheetId="5" r:id="rId6"/>
+    <sheet name="sonarqube" sheetId="1" r:id="rId1"/>
+    <sheet name="codeql" sheetId="2" r:id="rId2"/>
+    <sheet name="bandit" sheetId="3" r:id="rId3"/>
+    <sheet name="semgrep" sheetId="4" r:id="rId4"/>
+    <sheet name="model" sheetId="5" r:id="rId5"/>
+    <sheet name="true_label" sheetId="6" r:id="rId6"/>
     <sheet name="snyk" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="113">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -330,16 +331,10 @@
     <t>14(CWE-79),15(CWE-79),14(CWE-489),21(CWE-489),4(CWE-15),16(CWE-295),16(CWE-1004),16(CWE-614)</t>
   </si>
   <si>
-    <t>6(CWE-79),10(CWE-79),14(CWE-489),2(CWE-15)</t>
-  </si>
-  <si>
     <t>6(CWE-79),11(CWE-79),15(CWE-489),2(CWE-15)</t>
   </si>
   <si>
     <t>7(CWE-79),12(CWE-79),16(CWE-489),3(CWE-15)</t>
-  </si>
-  <si>
-    <t>6(CWE-79),12(CWE-79),16(CWE-489),2(CWE-15)</t>
   </si>
   <si>
     <t>6(CWE-79),15(CWE-79),20(CWE-489),2(CWE-15)</t>
@@ -375,7 +370,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -451,9 +446,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -491,9 +486,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -528,7 +523,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -563,7 +558,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -736,161 +731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1064,8 +905,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1309,8 +1150,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1560,8 +1401,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1760,8 +1601,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1960,8 +1801,163 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1995,7 +1991,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2003,7 +1999,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2011,7 +2007,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2051,7 +2047,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2067,7 +2063,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2075,7 +2071,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2083,7 +2079,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2091,7 +2087,7 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2099,7 +2095,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2107,7 +2103,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
